--- a/Road quality/processed_weighted_formal_plus_informal_road_quality.xlsx
+++ b/Road quality/processed_weighted_formal_plus_informal_road_quality.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Excel_per_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Road quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D30F5BF-52BE-40C5-BCFC-E1F9C80AA56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031C808-CD3D-4C41-9A3B-9401DD33444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{18C4ECCB-78F6-4659-9072-17AE6E257ED8}"/>
+    <workbookView xWindow="21285" yWindow="225" windowWidth="16980" windowHeight="20280" xr2:uid="{18C4ECCB-78F6-4659-9072-17AE6E257ED8}"/>
   </bookViews>
   <sheets>
     <sheet name="+informal-country" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -610,7 +609,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -638,6 +644,7 @@
       <sheetName val="+informal-grip"/>
       <sheetName val="Quality of road by IMAGE region"/>
       <sheetName val="+informal-image"/>
+      <sheetName val="Quality of roads"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -648,9 +655,39 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC7FCA89-F025-4457-8376-832B06285D0C}" name="Table1" displayName="Table1" ref="A1:L165" totalsRowShown="0">
+  <autoFilter ref="A1:L165" xr:uid="{FC7FCA89-F025-4457-8376-832B06285D0C}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3574DEAB-B80A-4859-9C14-E38B4A114E55}" name="country"/>
+    <tableColumn id="2" xr3:uid="{4FCB9BFA-59F4-4762-BA30-A5066C8FDAD4}" name="GRIP-region">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[1]!Table1[country],[1]!Table1[GRIP-region])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{6BAFABF1-6E7F-4D4B-9314-919555F9DC88}" name="IMAGE-region">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(A2,[1]!Table1[country],[1]!Table1[IMAGE-region])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{86063C41-7354-4C5A-B38C-1CE54A382950}" name="Impassable"/>
+    <tableColumn id="5" xr3:uid="{EFB890D0-3C5F-4691-AA7B-36426C179A7C}" name="Very horrible"/>
+    <tableColumn id="6" xr3:uid="{8F464C27-4919-48D5-AE98-471E8C5A8E74}" name="Horrible"/>
+    <tableColumn id="7" xr3:uid="{1F7CDE7C-E5FC-4E34-B089-64A2DA616A76}" name="Bad"/>
+    <tableColumn id="8" xr3:uid="{30964483-754B-4718-B2FA-654915FE5C1D}" name="Intermediate"/>
+    <tableColumn id="9" xr3:uid="{D5948C17-CA20-4043-9802-7E502505CA3B}" name="Good"/>
+    <tableColumn id="10" xr3:uid="{83E01AF3-949F-4D90-91C3-A71961D5289D}" name="Excellent"/>
+    <tableColumn id="11" xr3:uid="{12011119-441C-401B-874D-955F421705CB}" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>SUM(D2:J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{6CCB5390-43D8-4937-83CC-78D29F458EF4}" name="Weighted grade" dataDxfId="0">
+      <calculatedColumnFormula>(D2*1+E2*2+F2*3+G2*4+H2*5+I2*6+J2*7)/K2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,13 +990,21 @@
   <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -7890,17 +7935,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786AD662-9AB7-434D-B670-BBDA950C3501}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Road quality/processed_weighted_formal_plus_informal_road_quality.xlsx
+++ b/Road quality/processed_weighted_formal_plus_informal_road_quality.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Road quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Road quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2031C808-CD3D-4C41-9A3B-9401DD33444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA6A32F-9F0D-40D1-9FA7-62657E36E8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21285" yWindow="225" windowWidth="16980" windowHeight="20280" xr2:uid="{18C4ECCB-78F6-4659-9072-17AE6E257ED8}"/>
+    <workbookView xWindow="13470" yWindow="525" windowWidth="19275" windowHeight="19110" xr2:uid="{18C4ECCB-78F6-4659-9072-17AE6E257ED8}"/>
   </bookViews>
   <sheets>
-    <sheet name="+informal-country" sheetId="2" r:id="rId1"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="+informal-country" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>country</t>
   </si>
@@ -567,14 +568,93 @@
   </si>
   <si>
     <t>zimbabwe</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Quality of informal roads v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -599,15 +679,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{DAC9BD57-FAD1-4785-9C12-C5E4EAEB6F1A}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{CA99ED35-0959-4945-B137-07ED55C579EC}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -627,6 +716,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3115E287-868B-440F-8009-A1BA0D384A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23704EC-D1BE-46FF-B2A2-0A0C54D0920B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,10 +1202,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29178C7-CCC1-41F6-AF8E-D2867A02FE26}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{EA6058A9-A4E4-4C5E-B734-03323A115AE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A231BE98-3B36-4BCC-A72D-987B54809049}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
